--- a/level-1/hackerrank/phase-1-cpp/hackerrank-phase-1-cpp.xlsx
+++ b/level-1/hackerrank/phase-1-cpp/hackerrank-phase-1-cpp.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545E7178-4A0F-418A-80DE-B6EBF3B28E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D3B871-4F14-4E0E-BC25-E395205A8E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 1-cpp" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank 1-cpp" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -450,12 +463,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -468,10 +481,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,6 +489,15 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,21 +526,26 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1002,59 +1026,59 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
@@ -1095,17 +1119,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1116,16 +1140,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1146,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1167,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1188,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1209,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1230,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1251,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1262,17 +1286,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1293,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1314,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1335,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1356,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1377,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1388,17 +1412,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1419,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1440,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1451,17 +1475,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1482,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1503,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1524,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1545,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1566,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1587,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1608,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1629,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1640,17 +1664,17 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1661,17 +1685,17 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1692,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1713,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1724,17 +1748,17 @@
       <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1745,17 +1769,17 @@
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1776,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1787,17 +1811,17 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1818,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1829,17 +1853,17 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1860,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1881,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1902,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1923,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1934,17 +1958,17 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1955,17 +1979,17 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1976,17 +2000,17 @@
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1997,17 +2021,17 @@
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2028,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2039,17 +2063,17 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2070,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2091,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2112,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2133,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2144,17 +2168,17 @@
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2165,17 +2189,17 @@
       <c r="B55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2186,17 +2210,17 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2207,17 +2231,17 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2228,17 +2252,17 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2259,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2270,17 +2294,17 @@
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2301,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2322,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2343,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2364,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2375,17 +2399,17 @@
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2396,17 +2420,17 @@
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2427,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2438,17 +2462,17 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2459,17 +2483,17 @@
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2490,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2501,17 +2525,17 @@
       <c r="B71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2522,53 +2546,53 @@
       <c r="B72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
         <f t="shared" ref="H72" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="20"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7"/>
-      <c r="J74" s="21"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7"/>
-      <c r="J75" s="21"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
@@ -2579,7 +2603,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7"/>
-      <c r="J76" s="21"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
@@ -2590,7 +2614,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7"/>
-      <c r="J77" s="21"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
@@ -2601,7 +2625,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7"/>
-      <c r="J78" s="21"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
@@ -2612,29 +2636,29 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7"/>
-      <c r="J79" s="21"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7"/>
-      <c r="J80" s="21"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7"/>
-      <c r="J81" s="21"/>
+      <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
@@ -2645,117 +2669,117 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7"/>
-      <c r="J82" s="21"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="7"/>
-      <c r="J83" s="21"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7"/>
-      <c r="J84" s="21"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="7"/>
-      <c r="J85" s="21"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7"/>
-      <c r="J86" s="21"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="7"/>
-      <c r="J87" s="21"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="7"/>
-      <c r="J88" s="21"/>
+      <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7"/>
-      <c r="J89" s="21"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
       <c r="H90" s="7"/>
-      <c r="J90" s="21"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7"/>
-      <c r="J91" s="21"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7"/>
-      <c r="J92" s="21"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
@@ -2766,7 +2790,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7"/>
-      <c r="J93" s="21"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
@@ -2777,18 +2801,18 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7"/>
-      <c r="J94" s="21"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="7"/>
-      <c r="J95" s="21"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
@@ -2799,51 +2823,51 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7"/>
-      <c r="J96" s="21"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="7"/>
-      <c r="J97" s="21"/>
+      <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7"/>
-      <c r="J98" s="21"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7"/>
-      <c r="J99" s="21"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="7"/>
-      <c r="J100" s="21"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
@@ -2854,7 +2878,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7"/>
-      <c r="J101" s="21"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
@@ -2865,51 +2889,51 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7"/>
-      <c r="J102" s="21"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="7"/>
-      <c r="J103" s="21"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="7"/>
-      <c r="J104" s="21"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="7"/>
-      <c r="J105" s="21"/>
+      <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="7"/>
-      <c r="J106" s="21"/>
+      <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
@@ -2920,106 +2944,106 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7"/>
-      <c r="J107" s="21"/>
+      <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="7"/>
-      <c r="J108" s="21"/>
+      <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="7"/>
-      <c r="J109" s="21"/>
+      <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="7"/>
-      <c r="J110" s="21"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="7"/>
-      <c r="J111" s="21"/>
+      <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="7"/>
-      <c r="J112" s="21"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="7"/>
-      <c r="J113" s="21"/>
+      <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
       <c r="H114" s="7"/>
-      <c r="J114" s="21"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="7"/>
-      <c r="J115" s="21"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="7"/>
-      <c r="J116" s="21"/>
+      <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
@@ -3030,150 +3054,150 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7"/>
-      <c r="J117" s="21"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
       <c r="H118" s="7"/>
-      <c r="J118" s="21"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="7"/>
-      <c r="J119" s="21"/>
+      <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="7"/>
-      <c r="J120" s="21"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="7"/>
-      <c r="J121" s="21"/>
+      <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="7"/>
-      <c r="J122" s="21"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="7"/>
-      <c r="J123" s="21"/>
+      <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
       <c r="H124" s="7"/>
-      <c r="J124" s="21"/>
+      <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
       <c r="H125" s="7"/>
-      <c r="J125" s="21"/>
+      <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
       <c r="H126" s="7"/>
-      <c r="J126" s="21"/>
+      <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="7"/>
-      <c r="J127" s="21"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="7"/>
-      <c r="J128" s="21"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="7"/>
-      <c r="J129" s="21"/>
+      <c r="J129" s="11"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
       <c r="H130" s="7"/>
-      <c r="J130" s="21"/>
+      <c r="J130" s="11"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
@@ -3184,62 +3208,62 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
-      <c r="J131" s="21"/>
+      <c r="J131" s="11"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
       <c r="H132" s="7"/>
-      <c r="J132" s="21"/>
+      <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
       <c r="H133" s="7"/>
-      <c r="J133" s="21"/>
+      <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="7"/>
-      <c r="J134" s="21"/>
+      <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
       <c r="H135" s="7"/>
-      <c r="J135" s="21"/>
+      <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="7"/>
-      <c r="J136" s="21"/>
+      <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
@@ -3250,29 +3274,29 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
-      <c r="J137" s="21"/>
+      <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
       <c r="H138" s="7"/>
-      <c r="J138" s="21"/>
+      <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
       <c r="H139" s="7"/>
-      <c r="J139" s="21"/>
+      <c r="J139" s="11"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
@@ -3283,40 +3307,40 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7"/>
-      <c r="J140" s="21"/>
+      <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
       <c r="H141" s="7"/>
-      <c r="J141" s="21"/>
+      <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
       <c r="H142" s="7"/>
-      <c r="J142" s="21"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="21"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
@@ -3327,7 +3351,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="21"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
@@ -3340,29 +3364,29 @@
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3385,38 +3409,38 @@
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
       <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
       <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
       <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3430,182 +3454,182 @@
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
       <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
       <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
       <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
       <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
       <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
       <c r="H176" s="7"/>
     </row>
   </sheetData>
@@ -3621,98 +3645,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+  <conditionalFormatting sqref="J73">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
